--- a/document/【ファイルサーバ課題】テーブル仕様書.xlsx
+++ b/document/【ファイルサーバ課題】テーブル仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Google ドライブ\fileServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D610FB-9000-41D6-9423-E4B6A902D94B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53560716-66B1-42A0-9BA6-FE361D778682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{08F6BF20-B052-465B-A679-DB27BEFA1CBE}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="2" xr2:uid="{08F6BF20-B052-465B-A679-DB27BEFA1CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="65">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -129,13 +129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Email形式</t>
-    <rPh sb="5" eb="7">
-      <t>ケイシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -212,10 +205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>directory</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>create_user</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -239,13 +228,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フォルダ階層</t>
-    <rPh sb="4" eb="6">
-      <t>カイソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>長さ</t>
     <rPh sb="0" eb="1">
       <t>ナガ</t>
@@ -290,19 +272,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ディレクトリの持ち方未定</t>
-    <rPh sb="7" eb="8">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ミテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ファイルサーバ課題</t>
     <rPh sb="7" eb="9">
       <t>カダイ</t>
@@ -357,33 +326,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>0:マスタ 1:閲覧のみ 2:閲覧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>⁺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>更新</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新日時</t>
     <rPh sb="0" eb="4">
       <t>コウシンニチジ</t>
@@ -392,6 +334,148 @@
   </si>
   <si>
     <t>OID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:マスタ 1:更新者 2:閲覧者</t>
+    <rPh sb="8" eb="11">
+      <t>コウシンシャ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>エツランシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初回登録時は、登録日時と同じ値を設定</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初回登録時は、登録者と同じ値を設定</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形式：'yyyy/MM/dd HH:mm'</t>
+    <rPh sb="0" eb="2">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインユーザのuser_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Email形式、変更不可。変更の場合は削除/新規作成</t>
+    <rPh sb="5" eb="7">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ヘンコウフカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形式：ファイルのフルパス</t>
+    <rPh sb="0" eb="2">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・各カラムの最大長(長さ)を根拠ある数値に設定
+・ユニークキー(UK)列を追加
+・日時フォーマット、ファイルパスの保持形式を設定</t>
+    <rPh sb="6" eb="9">
+      <t>サイダイチョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -399,7 +483,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,13 +512,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -614,7 +691,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -645,12 +722,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,44 +791,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1019,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A37164-BF02-464A-BDC5-49479AD8E5E4}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1032,7 +1124,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.65">
@@ -1046,10 +1138,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.65">
@@ -1064,21 +1156,29 @@
         <v>44175</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.65">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A20" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10">
+        <v>44176</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A5" s="1">
@@ -1243,214 +1343,227 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A48202-D9C0-420F-B8C5-44B0DEF9E836}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:J10"/>
+      <selection sqref="A1:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="27">
+        <v>44175</v>
+      </c>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="10" t="s">
+      <c r="O4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="27">
+        <v>44176</v>
+      </c>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>44175</v>
-      </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="16" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="23"/>
+      <c r="O6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="17"/>
-    </row>
-    <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="22"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="18"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="23"/>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A7" s="19"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="19"/>
       <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="19"/>
-    </row>
-    <row r="8" spans="1:20" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="26"/>
+    </row>
+    <row r="8" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="5">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -1458,189 +1571,198 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="8">
-        <v>30</v>
-      </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="1" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="8">
+        <v>254</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="27"/>
-    </row>
-    <row r="9" spans="1:20" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="P8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="16"/>
+    </row>
+    <row r="9" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="5">
         <f t="shared" ref="A9:A11" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="8">
-        <v>20</v>
-      </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="1" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="8">
+        <v>32</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="27"/>
-    </row>
-    <row r="10" spans="1:20" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="P9" s="15"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="8">
-        <v>256</v>
-      </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="1" t="s">
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="8">
+        <v>255</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="27"/>
-    </row>
-    <row r="11" spans="1:20" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="P10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="8">
-        <v>1</v>
-      </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="27"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="A2:L3"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="F6:H7"/>
+  <mergeCells count="42">
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="G6:I7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="D6:F7"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="O6:T7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="P6:U7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1649,209 +1771,221 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54F6183-1FCA-4D69-B849-68EA50841DE3}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:J11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="27">
+        <v>44175</v>
+      </c>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="10" t="s">
+      <c r="O4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="27">
+        <v>44176</v>
+      </c>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>44175</v>
-      </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="16" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="23"/>
+      <c r="O6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="17"/>
-    </row>
-    <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="22"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="18"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="23"/>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A7" s="19"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="19"/>
       <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="19"/>
-    </row>
-    <row r="8" spans="1:20" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="26"/>
+    </row>
+    <row r="8" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="5">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -1859,339 +1993,364 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="1">
-        <v>5</v>
-      </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="27"/>
-    </row>
-    <row r="9" spans="1:20" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="D8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="1">
+        <v>7</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="16"/>
+    </row>
+    <row r="9" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="5">
         <f t="shared" ref="A9:A15" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="1">
-        <v>20</v>
-      </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="1" t="s">
+      <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="27"/>
-    </row>
-    <row r="10" spans="1:20" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="D9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="1">
+        <v>255</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="1" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="27"/>
-    </row>
-    <row r="11" spans="1:20" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="25" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="1" t="s">
+      <c r="K11" s="16"/>
+      <c r="L11" s="1">
+        <v>259</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O11" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="27"/>
-    </row>
-    <row r="12" spans="1:20" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="P11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="5">
         <f>ROW(A5)</f>
         <v>5</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="1">
-        <v>20</v>
-      </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="1" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="1">
+        <v>16</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="25"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="27"/>
-    </row>
-    <row r="13" spans="1:20" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="P12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="16"/>
+    </row>
+    <row r="13" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="1">
-        <v>30</v>
-      </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="1" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="1">
+        <v>32</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="27"/>
-    </row>
-    <row r="14" spans="1:20" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="P13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="16"/>
+    </row>
+    <row r="14" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="25" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="1" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="9">
+        <v>16</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="27"/>
-    </row>
-    <row r="15" spans="1:20" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="P14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="16"/>
+    </row>
+    <row r="15" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="1">
         <v>32</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="1">
-        <v>30</v>
-      </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="1" t="s">
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="25"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="27"/>
+      <c r="P15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="O15:T15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O14:T14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
+  <mergeCells count="62">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:T7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="A2:L3"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="D6:F7"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:U7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:U14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="P15:U15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/【ファイルサーバ課題】テーブル仕様書.xlsx
+++ b/document/【ファイルサーバ課題】テーブル仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Google ドライブ\fileServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53560716-66B1-42A0-9BA6-FE361D778682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F9E3AA-6613-4245-A0F8-B3665FF2CD6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="2" xr2:uid="{08F6BF20-B052-465B-A679-DB27BEFA1CBE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -475,6 +475,37 @@
     </rPh>
     <rPh sb="62" eb="64">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>files,file_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>files：ファイルIDをシーケンス参照にするため、型をbigintに変更</t>
+    <rPh sb="18" eb="20">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス(file_seq)を参照して取得</t>
+    <rPh sb="16" eb="18">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -691,7 +722,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,65 +765,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1112,7 +1149,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1185,17 +1222,25 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="14">
+        <v>44179</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
@@ -1358,210 +1403,210 @@
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="20" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="20" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="26">
         <v>44175</v>
       </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="20" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="28" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="20" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="26">
         <v>44176</v>
       </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="18" t="s">
+      <c r="N6" s="18"/>
+      <c r="O6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="23"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="18"/>
     </row>
     <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="19"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="24"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="25"/>
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
-      <c r="U7" s="26"/>
+      <c r="U7" s="20"/>
     </row>
     <row r="8" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="5">
@@ -1574,36 +1619,36 @@
       <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="14"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="8">
         <v>254</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="34"/>
       <c r="O8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="16"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="34"/>
     </row>
     <row r="9" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="5">
@@ -1614,34 +1659,34 @@
       <c r="C9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="8">
         <v>32</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="34"/>
       <c r="O9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="16"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="34"/>
     </row>
     <row r="10" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="5">
@@ -1650,36 +1695,36 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="14"/>
+      <c r="K10" s="35"/>
       <c r="L10" s="8">
         <v>255</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="34"/>
       <c r="O10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="16"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="34"/>
     </row>
     <row r="11" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="5">
@@ -1688,45 +1733,59 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14" t="s">
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14" t="s">
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="14"/>
+      <c r="K11" s="35"/>
       <c r="L11" s="8">
         <v>1</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="34"/>
       <c r="O11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="P11" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="16"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="G6:I7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="N4:Q4"/>
@@ -1743,26 +1802,12 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="A2:M3"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:U10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1774,216 +1819,216 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="20" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="20" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="26">
         <v>44175</v>
       </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="20" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="28" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="20" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="27">
-        <v>44176</v>
-      </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
+      <c r="R4" s="26">
+        <v>44179</v>
+      </c>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="18" t="s">
+      <c r="N6" s="18"/>
+      <c r="O6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="23"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="18"/>
     </row>
     <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="19"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="24"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="25"/>
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
-      <c r="U7" s="26"/>
+      <c r="U7" s="20"/>
     </row>
     <row r="8" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="5">
@@ -1996,34 +2041,36 @@
       <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="1">
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="15">
         <v>7</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="1" t="s">
+      <c r="M8" s="32"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="16"/>
+      <c r="P8" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="34"/>
     </row>
     <row r="9" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="5">
@@ -2034,34 +2081,34 @@
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15" t="s">
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="15" t="s">
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="16"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="1">
         <v>255</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="34"/>
       <c r="O9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="16"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="34"/>
     </row>
     <row r="10" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="5">
@@ -2070,32 +2117,32 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15" t="s">
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="15" t="s">
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="16"/>
+      <c r="K10" s="34"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="34"/>
       <c r="O10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="16"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="34"/>
     </row>
     <row r="11" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="5">
@@ -2104,36 +2151,36 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15" t="s">
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="15" t="s">
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="16"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="1">
         <v>259</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="34"/>
       <c r="O11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="P11" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="16"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="34"/>
     </row>
     <row r="12" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="5">
@@ -2142,36 +2189,36 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="15" t="s">
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="1">
         <v>16</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="34"/>
       <c r="O12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="16"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="34"/>
     </row>
     <row r="13" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="5">
@@ -2180,36 +2227,36 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15" t="s">
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="15" t="s">
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="16"/>
+      <c r="K13" s="34"/>
       <c r="L13" s="1">
         <v>32</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="16"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="34"/>
       <c r="O13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="16"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="34"/>
     </row>
     <row r="14" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A14" s="5">
@@ -2218,36 +2265,36 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15" t="s">
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="15" t="s">
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="16"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="9">
         <v>16</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="34"/>
       <c r="O14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P14" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="16"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="34"/>
     </row>
     <row r="15" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A15" s="5">
@@ -2256,47 +2303,79 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15" t="s">
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="15" t="s">
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="16"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="1">
         <v>32</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="34"/>
       <c r="O15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="16"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="P15:U15"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:U14"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:U8"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="N4:Q4"/>
@@ -2311,46 +2390,14 @@
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:U7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:U10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:U12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:U14"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="P15:U15"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/【ファイルサーバ課題】テーブル仕様書.xlsx
+++ b/document/【ファイルサーバ課題】テーブル仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Google ドライブ\fileServer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Desktop\Git_backUp\1218\document_push_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F9E3AA-6613-4245-A0F8-B3665FF2CD6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A825E59-6511-4373-9FFB-2D68526F94CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="2" xr2:uid="{08F6BF20-B052-465B-A679-DB27BEFA1CBE}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{08F6BF20-B052-465B-A679-DB27BEFA1CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>file_obj</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>create_user</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -224,10 +220,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>長さ</t>
     <rPh sb="0" eb="1">
       <t>ナガ</t>
@@ -330,10 +322,6 @@
     <rPh sb="0" eb="4">
       <t>コウシンニチジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -479,10 +467,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>files,file_seq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>files：ファイルIDをシーケンス参照にするため、型をbigintに変更</t>
     <rPh sb="18" eb="20">
       <t>サンショウ</t>
@@ -496,16 +480,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シーケンス(file_seq)を参照して取得</t>
     <rPh sb="16" eb="18">
       <t>サンショウ</t>
     </rPh>
     <rPh sb="20" eb="22">
       <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SERIAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記実装方法変更のため、ファイルIDの型をserial型に変更
+Fileクラスを利用したファイル操作に変更のためfile_objカラムを削除</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -722,7 +744,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,65 +793,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1148,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A37164-BF02-464A-BDC5-49479AD8E5E4}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1214,7 +1239,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.65">
@@ -1229,21 +1254,29 @@
         <v>44179</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.65">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="16">
+        <v>44183</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A7" s="1">
@@ -1403,210 +1436,210 @@
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A2" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="16" t="s">
+      <c r="O2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="30">
+        <v>44175</v>
+      </c>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A2" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="16" t="s">
+      <c r="R3" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="26">
-        <v>44175</v>
-      </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="16" t="s">
+      <c r="R4" s="30">
+        <v>44176</v>
+      </c>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="26">
-        <v>44176</v>
-      </c>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="17" t="s">
+      <c r="K6" s="23"/>
+      <c r="L6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="17" t="s">
+      <c r="N6" s="26"/>
+      <c r="O6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="18"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="26"/>
     </row>
     <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="23"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="20"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="29"/>
     </row>
     <row r="8" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="5">
@@ -1619,36 +1652,36 @@
       <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="35"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="17"/>
       <c r="L8" s="8">
         <v>254</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="34"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="19"/>
       <c r="O8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="34"/>
+      <c r="P8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="19"/>
     </row>
     <row r="9" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="5">
@@ -1659,34 +1692,34 @@
       <c r="C9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="35"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="17"/>
       <c r="L9" s="8">
         <v>32</v>
       </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="34"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="19"/>
       <c r="O9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="34"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="19"/>
     </row>
     <row r="10" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="5">
@@ -1695,36 +1728,36 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="35"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="17"/>
       <c r="L10" s="8">
         <v>255</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="34"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19"/>
       <c r="O10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="34"/>
+      <c r="P10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="19"/>
     </row>
     <row r="11" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="5">
@@ -1733,59 +1766,45 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35" t="s">
+      <c r="D11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="35"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="17"/>
       <c r="L11" s="8">
         <v>1</v>
       </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="34"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="34"/>
+      <c r="P11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:U10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:F7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="N4:Q4"/>
@@ -1802,12 +1821,26 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="A2:M3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="G6:I7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:F7"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1816,223 +1849,223 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54F6183-1FCA-4D69-B849-68EA50841DE3}">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A2" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="16" t="s">
+      <c r="O2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="30">
+        <v>44175</v>
+      </c>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A2" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="16" t="s">
+      <c r="R3" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.65">
+      <c r="A4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="26">
-        <v>44175</v>
-      </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="16" t="s">
+      <c r="R4" s="30">
+        <v>44183</v>
+      </c>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="26">
-        <v>44179</v>
-      </c>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="17" t="s">
+      <c r="K6" s="23"/>
+      <c r="L6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="17" t="s">
+      <c r="N6" s="26"/>
+      <c r="O6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="18"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="26"/>
     </row>
     <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="23"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="20"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="29"/>
     </row>
     <row r="8" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="5">
-        <f>ROW(A1)</f>
+        <f>ROW(A8)-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2041,74 +2074,74 @@
       <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="34"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="19"/>
       <c r="L8" s="15">
         <v>7</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="34"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="19"/>
       <c r="O8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="34"/>
+      <c r="P8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="19"/>
     </row>
     <row r="9" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="5">
-        <f t="shared" ref="A9:A15" si="0">ROW(A2)</f>
+        <f t="shared" ref="A9:A14" si="0">ROW(A9)-7</f>
         <v>2</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="34"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="19"/>
       <c r="L9" s="1">
         <v>255</v>
       </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="34"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="19"/>
       <c r="O9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="34"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="19"/>
     </row>
     <row r="10" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="5">
@@ -2117,108 +2150,112 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="34"/>
+      <c r="D10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="1">
+        <v>259</v>
+      </c>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19"/>
       <c r="O10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="34"/>
+      <c r="P10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="19"/>
     </row>
     <row r="11" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="32" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="34"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="19"/>
       <c r="L11" s="1">
-        <v>259</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="34"/>
+        <v>16</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="34"/>
+      <c r="P11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="19"/>
     </row>
     <row r="12" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="5">
-        <f>ROW(A5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="34"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="19"/>
       <c r="L12" s="1">
-        <v>16</v>
-      </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="34"/>
+        <v>32</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
       <c r="O12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P12" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="34"/>
+      <c r="P12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="19"/>
     </row>
     <row r="13" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="5">
@@ -2227,36 +2264,36 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="1">
-        <v>32</v>
-      </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="34"/>
+      <c r="D13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="9">
+        <v>16</v>
+      </c>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19"/>
       <c r="O13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P13" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="34"/>
+      <c r="P13" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="19"/>
     </row>
     <row r="14" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A14" s="5">
@@ -2265,117 +2302,47 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="9">
-        <v>16</v>
-      </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="34"/>
+      <c r="D14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="1">
+        <v>32</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
       <c r="O14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P14" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="34"/>
-    </row>
-    <row r="15" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A15" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="1">
-        <v>32</v>
-      </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="34"/>
+      <c r="P14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="P15:U15"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:U14"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:U12"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:U10"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:U8"/>
+  <mergeCells count="57">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="N4:Q4"/>
@@ -2390,14 +2357,41 @@
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:U7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:U14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/【ファイルサーバ課題】テーブル仕様書.xlsx
+++ b/document/【ファイルサーバ課題】テーブル仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Desktop\Git_backUp\1218\document_push_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujit\GoogleDrive\GitHub\spring-project\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A825E59-6511-4373-9FFB-2D68526F94CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6117FF6A-D3D4-4907-B7AE-49003CFDBF06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{08F6BF20-B052-465B-A679-DB27BEFA1CBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" activeTab="2" xr2:uid="{08F6BF20-B052-465B-A679-DB27BEFA1CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -528,6 +527,27 @@
     </rPh>
     <rPh sb="68" eb="70">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤田</t>
+    <rPh sb="0" eb="2">
+      <t>フジタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_nameのユニークキー指定を削除
+file_pathをユニークキー指定</t>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -744,7 +764,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,65 +816,71 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1173,23 +1199,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A37164-BF02-464A-BDC5-49479AD8E5E4}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="11.0703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.0703125" customWidth="1"/>
-    <col min="5" max="5" width="57.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="57.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -1224,7 +1250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="55.3" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A20" si="0">ROW(A2)</f>
         <v>2</v>
@@ -1242,7 +1268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1260,7 +1286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="55.3" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1278,17 +1304,25 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="17">
+        <v>44186</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1298,7 +1332,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1308,7 +1342,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1318,7 +1352,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1328,7 +1362,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f>ROW(A10)</f>
         <v>10</v>
@@ -1338,7 +1372,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1348,7 +1382,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1358,7 +1392,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1368,7 +1402,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1378,7 +1412,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1388,7 +1422,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1398,7 +1432,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1408,7 +1442,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1433,215 +1467,215 @@
       <selection sqref="A1:U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="23" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A2" s="32" t="s">
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="23" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="30">
+      <c r="R2" s="29">
         <v>44175</v>
       </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="23" t="s">
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A4" s="23" t="s">
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="31" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="23" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="29">
         <v>44176</v>
       </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="21" t="s">
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="21" t="s">
+      <c r="N6" s="21"/>
+      <c r="O6" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="26"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="22"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="21"/>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="26"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="22"/>
       <c r="Q7" s="28"/>
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="29"/>
-    </row>
-    <row r="8" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U7" s="23"/>
+    </row>
+    <row r="8" spans="1:21" s="6" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -1652,38 +1686,38 @@
       <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17" t="s">
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="17"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="8">
         <v>254</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="19"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="37"/>
       <c r="O8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="19"/>
-    </row>
-    <row r="9" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="37"/>
+    </row>
+    <row r="9" spans="1:21" s="6" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <f t="shared" ref="A9:A11" si="0">ROW(A2)</f>
         <v>2</v>
@@ -1692,119 +1726,133 @@
       <c r="C9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17" t="s">
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="17"/>
+      <c r="K9" s="38"/>
       <c r="L9" s="8">
         <v>32</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="37"/>
       <c r="O9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="19"/>
-    </row>
-    <row r="10" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="37"/>
+    </row>
+    <row r="10" spans="1:21" s="6" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17" t="s">
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="38"/>
       <c r="L10" s="8">
         <v>255</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="19"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="37"/>
       <c r="O10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="19"/>
-    </row>
-    <row r="11" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="37"/>
+    </row>
+    <row r="11" spans="1:21" s="6" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17" t="s">
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="17"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="8">
         <v>1</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="37"/>
       <c r="O11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="19"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="G6:I7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="N4:Q4"/>
@@ -1821,26 +1869,12 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="A2:M3"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:U10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1851,219 +1885,219 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54F6183-1FCA-4D69-B849-68EA50841DE3}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:U4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="23" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A2" s="32" t="s">
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="23" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="30">
+      <c r="R2" s="29">
         <v>44175</v>
       </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="23" t="s">
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.65">
-      <c r="A4" s="23" t="s">
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="31" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="23" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="29">
         <v>44183</v>
       </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="21" t="s">
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="21" t="s">
+      <c r="N6" s="21"/>
+      <c r="O6" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="26"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="22"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="21"/>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="26"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="22"/>
       <c r="Q7" s="28"/>
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="29"/>
-    </row>
-    <row r="8" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="U7" s="23"/>
+    </row>
+    <row r="8" spans="1:21" s="6" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <f>ROW(A8)-7</f>
         <v>1</v>
@@ -2074,275 +2108,302 @@
       <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18" t="s">
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="18" t="s">
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="19"/>
+      <c r="K8" s="37"/>
       <c r="L8" s="15">
         <v>7</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="19"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="37"/>
       <c r="O8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="19"/>
-    </row>
-    <row r="9" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="37"/>
+    </row>
+    <row r="9" spans="1:21" s="6" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <f t="shared" ref="A9:A14" si="0">ROW(A9)-7</f>
         <v>2</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="18" t="s">
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="19"/>
+      <c r="K9" s="37"/>
       <c r="L9" s="1">
         <v>255</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="37"/>
       <c r="O9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="19"/>
-    </row>
-    <row r="10" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="37"/>
+    </row>
+    <row r="10" spans="1:21" s="6" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18" t="s">
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="19"/>
+      <c r="K10" s="37"/>
       <c r="L10" s="1">
         <v>259</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="19"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="37"/>
       <c r="O10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="19"/>
-    </row>
-    <row r="11" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="37"/>
+    </row>
+    <row r="11" spans="1:21" s="6" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18" t="s">
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="18" t="s">
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="19"/>
+      <c r="K11" s="37"/>
       <c r="L11" s="1">
         <v>16</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="37"/>
       <c r="O11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="19"/>
-    </row>
-    <row r="12" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="37"/>
+    </row>
+    <row r="12" spans="1:21" s="6" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18" t="s">
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="18" t="s">
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="19"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="1">
         <v>32</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="37"/>
       <c r="O12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P12" s="18" t="s">
+      <c r="P12" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="19"/>
-    </row>
-    <row r="13" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="37"/>
+    </row>
+    <row r="13" spans="1:21" s="6" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18" t="s">
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="18" t="s">
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="19"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="9">
         <v>16</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="19"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="37"/>
       <c r="O13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="P13" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="19"/>
-    </row>
-    <row r="14" spans="1:21" s="6" customFormat="1" ht="22.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="37"/>
+    </row>
+    <row r="14" spans="1:21" s="6" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18" t="s">
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="18" t="s">
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="19"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="1">
         <v>32</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="37"/>
       <c r="O14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="19"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:U14"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="P8:U8"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="N4:Q4"/>
@@ -2357,41 +2418,14 @@
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:U7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:U10"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:U12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:U14"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
